--- a/biology/Médecine/Ronchi_(médecine)/Ronchi_(médecine).xlsx
+++ b/biology/Médecine/Ronchi_(médecine)/Ronchi_(médecine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ronchi_(m%C3%A9decine)</t>
+          <t>Ronchi_(médecine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les ronchi (pluriel de ronchus du latin rhonchus ou en grec ancien ρόνχος/ronchos désignant un ronflement) sont des signes recueillis lors de l'auscultation des poumons avec un stéthoscope.
 Ce sont des râles ronflants essentiellement expiratoires.
-De tonalité plus grave que les sibilants[1], ils sont dus aux vibrations des sécrétions sur la paroi bronchique et sont modifiés (et peuvent même disparaître) par la toux.
-Ils sont perçus typiquement dans l’asthme et la broncho-pneumopathie chronique obstructive (BPCO)[2].
+De tonalité plus grave que les sibilants, ils sont dus aux vibrations des sécrétions sur la paroi bronchique et sont modifiés (et peuvent même disparaître) par la toux.
+Ils sont perçus typiquement dans l’asthme et la broncho-pneumopathie chronique obstructive (BPCO).
 Les ronchi sont classés R09.8 dans la classification internationale des maladies (CIM 10) et 786.7 dans la CIM--9.
 </t>
         </is>
